--- a/medicine/Mort/Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française/Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française.xlsx
+++ b/medicine/Mort/Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française/Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_minutes_de_silence_observ%C3%A9es_par_l%27Assembl%C3%A9e_nationale_fran%C3%A7aise</t>
+          <t>Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article recense les minutes de silence observées par l'Assemblée nationale française au cours de la Cinquième République.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_minutes_de_silence_observ%C3%A9es_par_l%27Assembl%C3%A9e_nationale_fran%C3%A7aise</t>
+          <t>Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,29 +525,75 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Députés
-1958-1979
-29 octobre 1979 : Germaine Peyroles[1]
-30 octobre 1979 : Robert Boulin[2]
-20 novembre 1979 : Bernard Jourd'hui[3]
-1980-1989
-2 avril 1980 :
-Adolphe Aumeran[4]
-Charles Bignon[4]
-François de Champeaux[4]
-Charles Colonna d'Anfriani[4]
-Mohamed-Lakhdar Djouini[4]
-Max Montagne[4]
-Emmanuel Villedieu[4]
-10 octobre 1980 : Rachel Lempereur[5]
-21 octobre 1980 : Georges Klein[6]
+          <t>Députés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1958-1979</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>29 octobre 1979 : Germaine Peyroles
+30 octobre 1979 : Robert Boulin
+20 novembre 1979 : Bernard Jourd'hui</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_minutes_de_silence_observ%C3%A9es_par_l%27Assembl%C3%A9e_nationale_fran%C3%A7aise</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Députés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1980-1989</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 avril 1980 :
+Adolphe Aumeran
+Charles Bignon
+François de Champeaux
+Charles Colonna d'Anfriani
+Mohamed-Lakhdar Djouini
+Max Montagne
+Emmanuel Villedieu
+10 octobre 1980 : Rachel Lempereur
+21 octobre 1980 : Georges Klein
 14 novembre 1980 :
-Georges Blachette[7]
-Aimée Batier[7]
-19 novembre 1980 : Henri Duterne[8]
-2 avril 1981 : Robert Ballanger[9]
+Georges Blachette
+Aimée Batier
+19 novembre 1980 : Henri Duterne
+2 avril 1981 : Robert Ballanger
 2 juillet 1981 :
-Henri Darras[10] (et hommage funèbre)
+Henri Darras (et hommage funèbre)
 René Boullier de Branche
 Jacques-Antoine Gau
 18 octobre 1982 : Pierre Mendès France
@@ -547,9 +605,47 @@
 Aymar Achille-Fould
 2 avril 1988 : Joseph Franceschi
 11 octobre 1988 : Robert Wagner
-13 juin 1989 : Pierre Tabanou
-1990-1999
-2 avril 1990 : Charles Hernu
+13 juin 1989 : Pierre Tabanou</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_minutes_de_silence_observ%C3%A9es_par_l%27Assembl%C3%A9e_nationale_fran%C3%A7aise</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Députés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1990-1999</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 avril 1990 : Charles Hernu
 12 juin 1990 : Charles Hernu (éloge funèbre)
 2 octobre 1990 : Gustave Ansart
 20 novembre 1990 : Gustave Ansart
@@ -572,137 +668,494 @@
 1er octobre 1997 : Jean Poperen
 13 janvier 1998 : Georges Marchais
 2 février 1999 : Michel Péricard
-30 mars 1999 : Michel Crépeau
-2000-2010
-13 novembre 2000 : Jacques Chaban-Delmas[11]
+30 mars 1999 : Michel Crépeau</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_minutes_de_silence_observ%C3%A9es_par_l%27Assembl%C3%A9e_nationale_fran%C3%A7aise</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Députés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2000-2010</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>13 novembre 2000 : Jacques Chaban-Delmas
 9 janvier 2001 : André Capet
 14 novembre 2006 : Nathalie Gautier
-22 septembre 2008 : Jean Marsaudon[12]
-17 novembre 2008 : Jean-Marie Demange[13]
-19 novembre 2008 : Jean Marsaudon[14]
-1er avril 2009 : Michel Crépeau[15]
-2010-2020
-12 janvier 2010 : Philippe Séguin (éloge funèbre)
-6 avril 2010 : Arlette Franco[16]
-3 mai 2011 : Patrick Roy[17]
-4 mai 2011 : Françoise Olivier-Coupeau[18]
-3 juillet 2012 : Olivier Ferrand[19]
-8 mars 2016 : Sophie Dessus[20]
-26 avril 2016 : Anne Grommerch[21]
-26 juillet 2017 : Corinne Erhel[22]
-Depuis 2020
-31 mars 2020 : Jean-François Cesarini et Patrick Devedjian[23]
-13 janvier 2021 : Marielle de Sarnez[24]
-9 mars 2021 : Olivier Dassault[25]
-Personnalités politiques
-2 avril 1975 : Georges Pompidou
+22 septembre 2008 : Jean Marsaudon
+17 novembre 2008 : Jean-Marie Demange
+19 novembre 2008 : Jean Marsaudon
+1er avril 2009 : Michel Crépeau</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_minutes_de_silence_observ%C3%A9es_par_l%27Assembl%C3%A9e_nationale_fran%C3%A7aise</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Députés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2010-2020</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12 janvier 2010 : Philippe Séguin (éloge funèbre)
+6 avril 2010 : Arlette Franco
+3 mai 2011 : Patrick Roy
+4 mai 2011 : Françoise Olivier-Coupeau
+3 juillet 2012 : Olivier Ferrand
+8 mars 2016 : Sophie Dessus
+26 avril 2016 : Anne Grommerch
+26 juillet 2017 : Corinne Erhel</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_minutes_de_silence_observ%C3%A9es_par_l%27Assembl%C3%A9e_nationale_fran%C3%A7aise</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Députés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Depuis 2020</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>31 mars 2020 : Jean-François Cesarini et Patrick Devedjian
+13 janvier 2021 : Marielle de Sarnez
+9 mars 2021 : Olivier Dassault</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_minutes_de_silence_observ%C3%A9es_par_l%27Assembl%C3%A9e_nationale_fran%C3%A7aise</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Personnalités politiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 avril 1975 : Georges Pompidou
 2 avril 1988 : Edgar Faure
 7 décembre 1993 : Félix Houphouët-Boigny
 6 novembre 1995 : Yitzhak Rabin
 16 janvier 1996 : François Mitterrand
 27 octobre 1999 : Vazgen Sargsian
 17 novembre 2008 : Jean-Marie Demange
-12 janvier 2010 : Philippe Séguin[26]
-11 juin 2013 : Pierre Mauroy[27]
-6 décembre 2013 : Nelson Mandela[28]
-21 juin 2016 : Jo Cox[29]
-6 juillet 2016 : Michel Rocard[30]
-1er octobre 2019 : Jacques Chirac[31]
-3 décembre 2020 : Valéry Giscard d'Estaing[32]
-Autres personnalités
-8 novembre 1979 : Yvonne de Gaulle[33]
+12 janvier 2010 : Philippe Séguin
+11 juin 2013 : Pierre Mauroy
+6 décembre 2013 : Nelson Mandela
+21 juin 2016 : Jo Cox
+6 juillet 2016 : Michel Rocard
+1er octobre 2019 : Jacques Chirac
+3 décembre 2020 : Valéry Giscard d'Estaing</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_minutes_de_silence_observ%C3%A9es_par_l%27Assembl%C3%A9e_nationale_fran%C3%A7aise</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres personnalités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>8 novembre 1979 : Yvonne de Gaulle
 16 juin 1998 : Éric Tabarly
-5 avril 2005 : Jean-Paul II[34]
-9 mai 2006 : Mathias et Madison, deux enfants assassinés le week-end précédent[35]
-6 juin 2013 : Clément Méric[36]
-13 mai 2014 : Camille Lepage[37]
-13 juillet 2022 : décès d'un sous-traitant dans un parking de l'Assemblée nationale[38]
-28 juin 2023 : Nahel Merzouk[39].
-28 novembre 2023 : Thomas Perotto[40]
-Militaires morts en opération
-5 novembre 2014 : Thomas Dupuy, commando parachutiste, mort au Mali le 29 octobre[41]
-20 juillet 2016 : hommage à trois militaires morts en Libye[42]
-5 novembre 2019 : hommage au militaire Ronan Pointeau, tué durant guerre du Mali[43]
-Agents de l'État morts en service
-14 novembre 1984 : hommage aux policiers et gendarmes tués en service commandé
-6 février 1998 : Claude Érignac, préfet de la région Corse et préfet de la Corse-du-Sud[44]
-25 mai 2010 : Aurélie Fouquet, policière municipale de Villiers-sur-Marne[45]
-14 juin 2016 : double meurtre du 13 juin 2016 à Magnanville visant un couple de fonctionnaires du ministère de l'Intérieur[46]
-22 novembre 2022 : hommage à l’agent du fisc assassiné lors d’un contrôle chez un brocanteur à Bullecourt dans le Pas-de-Calais[47]
-14 mai 2024 : hommage aux deux agents de l'administration pénitentiaire tués au péage d'Incarville dans l'Eure sur l'autoroute A154, alors qu'ils transportaient un détenu dans un fourgon[48].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_minutes_de_silence_observ%C3%A9es_par_l%27Assembl%C3%A9e_nationale_fran%C3%A7aise</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_minutes_de_silence_observ%C3%A9es_par_l%27Assembl%C3%A9e_nationale_fran%C3%A7aise</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+5 avril 2005 : Jean-Paul II
+9 mai 2006 : Mathias et Madison, deux enfants assassinés le week-end précédent
+6 juin 2013 : Clément Méric
+13 mai 2014 : Camille Lepage
+13 juillet 2022 : décès d'un sous-traitant dans un parking de l'Assemblée nationale
+28 juin 2023 : Nahel Merzouk.
+28 novembre 2023 : Thomas Perotto</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_minutes_de_silence_observ%C3%A9es_par_l%27Assembl%C3%A9e_nationale_fran%C3%A7aise</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Militaires morts en opération</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5 novembre 2014 : Thomas Dupuy, commando parachutiste, mort au Mali le 29 octobre
+20 juillet 2016 : hommage à trois militaires morts en Libye
+5 novembre 2019 : hommage au militaire Ronan Pointeau, tué durant guerre du Mali</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_minutes_de_silence_observ%C3%A9es_par_l%27Assembl%C3%A9e_nationale_fran%C3%A7aise</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Agents de l'État morts en service</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>14 novembre 1984 : hommage aux policiers et gendarmes tués en service commandé
+6 février 1998 : Claude Érignac, préfet de la région Corse et préfet de la Corse-du-Sud
+25 mai 2010 : Aurélie Fouquet, policière municipale de Villiers-sur-Marne
+14 juin 2016 : double meurtre du 13 juin 2016 à Magnanville visant un couple de fonctionnaires du ministère de l'Intérieur
+22 novembre 2022 : hommage à l’agent du fisc assassiné lors d’un contrôle chez un brocanteur à Bullecourt dans le Pas-de-Calais
+14 mai 2024 : hommage aux deux agents de l'administration pénitentiaire tués au péage d'Incarville dans l'Eure sur l'autoroute A154, alors qu'ils transportaient un détenu dans un fourgon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_minutes_de_silence_observ%C3%A9es_par_l%27Assembl%C3%A9e_nationale_fran%C3%A7aise</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Catastrophes
-8 novembre 1988 : accident ferroviaire d'Ay
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Catastrophes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>8 novembre 1988 : accident ferroviaire d'Ay
 8 décembre 1988 : séisme en Arménie
 21 janvier 1992 : catastrophe aérienne du mont Sainte-Odile
 6 mai 1992 : catastrophe de Furiani
 27 janvier 1998 : accident des Orres
-24 mars 2015 : crash du vol 9525 Germanwings[49]
-23 octobre 2015 : accident de Puisseguin (lancée de manière inédite par un membre du gouvernement, Marisol Touraine, et non par le président de séance comme il est d'usage)[50]
-7 février 2023 : séismes en Turquie et Syrie[51]
-Commémorations
-8 mai 1963 : anniversaire de la fin de la Seconde Guerre mondiale en Europe, le 8 mai 1945
+24 mars 2015 : crash du vol 9525 Germanwings
+23 octobre 2015 : accident de Puisseguin (lancée de manière inédite par un membre du gouvernement, Marisol Touraine, et non par le président de séance comme il est d'usage)
+7 février 2023 : séismes en Turquie et Syrie</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_minutes_de_silence_observ%C3%A9es_par_l%27Assembl%C3%A9e_nationale_fran%C3%A7aise</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Commémorations</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>8 mai 1963 : anniversaire de la fin de la Seconde Guerre mondiale en Europe, le 8 mai 1945
 6 juin 1983 : anniversaire du débarquement de Normandie
 6 juin 1984 : anniversaire du débarquement de Normandie
 7 mai 1985 : hommage aux victimes du nazisme
 2 octobre 1987 : hommage aux victimes du nazisme
 27 mai 1988 : hommage aux victimes de la Shoah, à la suite de la thèse négationniste d'Henri Roques soutenue à l'université de Nantes
-15 avril 1992 : hommage aux déportés
-Guerres, conflits et attentats
-12 décembre 1960 : hommage aux morts en Algérie au cours des manifestations du 11 décembre
+15 avril 1992 : hommage aux déportés</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_minutes_de_silence_observ%C3%A9es_par_l%27Assembl%C3%A9e_nationale_fran%C3%A7aise</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Guerres, conflits et attentats</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>12 décembre 1960 : hommage aux morts en Algérie au cours des manifestations du 11 décembre
 7 octobre 1980 : attentat de la rue Copernic
 22 avril 1982 : attentat de la rue Marbeuf
 25 octobre 1983 : hommage aux soldats français morts au Liban au cours des attentats du 23 octobre 1983 à Beyrouth
 24 juin 1987 : hommage aux victimes du terrorisme en Corse depuis 1975
 25 juillet 1995 : attentat du RER B à Saint-Michel
 5 mars 1996 : attentats-suicides du 25 février au 4 mars 1996 en Israël
-13 janvier 2015 : attentats de janvier 2015 en France[52]
-16 novembre 2015 : attentats du 13 novembre 2015 à Paris (lors de la réunion en Congrès à Versailles)[53]
-22 mars 2016 : attentats à Bruxelles[54]
-14 juin 2016 : fusillade du 12 juin 2016 à Orlando[46]
-29 juin 2016 : attentat d'Istanbul du 28 juin 2016[55]
-20 juillet 2016 : attentat du 14 juillet 2016 à Nice[42]
-20 décembre 2016 : attentat du 19 décembre 2016 à Berlin[56]
-3 octobre 2017 : fusillade de Las Vegas et attaque par arme blanche à la gare Saint-Charles de Marseille[57]
-12 décembre 2018 : fusillade à Strasbourg à proximité du marché de Noël[58]
-26 novembre 2019 : combat de la vallée d'Eranga où treize militaires ont perdu la vie lors de la guerre du Mali[59]
-20 octobre 2020 : hommage à Samuel Paty, professeur assassiné lors de l'attentat de Conflans-Sainte-Honorine[60]
-29 octobre 2020 : hommage aux trois personnes assassinées lors de l'attentat de la basilique Notre-Dame de Nice[61]
-4 octobre 2022 : hommage aux victimes de la répression en Iran[62]
-8 juin 2023 : attaque au couteau à Annecy[63]
-10 octobre 2023 : attaque du Hamas contre Israël[64]
-17 octobre 2023 : hommage à Dominique Bernard, professeur tué lors de l'attaque au couteau du lycée Gambetta d'Arras, ainsi qu'à Samuel Paty, professeur tué dans des circonstances similaires en 2020[65]
-23 mars 2024 : hommage aux victimes de l’attentat du Crocus City Hall à Kasnogorsk dans la banlieue de Moscou, ayant fait 139 morts et 182 blessés (selon le bilan publié le 26 mars)[66],[67]
-Autres
-20 décembre 1989 : situation en Roumanie</t>
+13 janvier 2015 : attentats de janvier 2015 en France
+16 novembre 2015 : attentats du 13 novembre 2015 à Paris (lors de la réunion en Congrès à Versailles)
+22 mars 2016 : attentats à Bruxelles
+14 juin 2016 : fusillade du 12 juin 2016 à Orlando
+29 juin 2016 : attentat d'Istanbul du 28 juin 2016
+20 juillet 2016 : attentat du 14 juillet 2016 à Nice
+20 décembre 2016 : attentat du 19 décembre 2016 à Berlin
+3 octobre 2017 : fusillade de Las Vegas et attaque par arme blanche à la gare Saint-Charles de Marseille
+12 décembre 2018 : fusillade à Strasbourg à proximité du marché de Noël
+26 novembre 2019 : combat de la vallée d'Eranga où treize militaires ont perdu la vie lors de la guerre du Mali
+20 octobre 2020 : hommage à Samuel Paty, professeur assassiné lors de l'attentat de Conflans-Sainte-Honorine
+29 octobre 2020 : hommage aux trois personnes assassinées lors de l'attentat de la basilique Notre-Dame de Nice
+4 octobre 2022 : hommage aux victimes de la répression en Iran
+8 juin 2023 : attaque au couteau à Annecy
+10 octobre 2023 : attaque du Hamas contre Israël
+17 octobre 2023 : hommage à Dominique Bernard, professeur tué lors de l'attaque au couteau du lycée Gambetta d'Arras, ainsi qu'à Samuel Paty, professeur tué dans des circonstances similaires en 2020
+23 mars 2024 : hommage aux victimes de l’attentat du Crocus City Hall à Kasnogorsk dans la banlieue de Moscou, ayant fait 139 morts et 182 blessés (selon le bilan publié le 26 mars),</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_minutes_de_silence_observées_par_l'Assemblée_nationale_française</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_minutes_de_silence_observ%C3%A9es_par_l%27Assembl%C3%A9e_nationale_fran%C3%A7aise</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>20 décembre 1989 : situation en Roumanie</t>
         </is>
       </c>
     </row>
